--- a/data/kbvreport_export/faktenblatttabellen_2021-09-05.xlsx
+++ b/data/kbvreport_export/faktenblatttabellen_2021-09-05.xlsx
@@ -30,7 +30,7 @@
     <t xml:space="preserve">Vorwoche</t>
   </si>
   <si>
-    <t xml:space="preserve">Stand 8.9.</t>
+    <t xml:space="preserve">Stand 9.9.</t>
   </si>
   <si>
     <t xml:space="preserve">Anteil_Veraenderung</t>
@@ -45,10 +45,10 @@
     <t xml:space="preserve">Gesamt</t>
   </si>
   <si>
-    <t xml:space="preserve">54297654 (65,3 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54890847 (66,0 %)</t>
+    <t xml:space="preserve">54422241 (65,4 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55039872 (66,2 %)</t>
   </si>
   <si>
     <t xml:space="preserve"> 0,7 PP</t>
@@ -57,22 +57,22 @@
     <t xml:space="preserve">Nicht vollst. geimpft</t>
   </si>
   <si>
-    <t xml:space="preserve">3865924 ( 4,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3683770 ( 4,4 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,2 PP</t>
+    <t xml:space="preserve">3821790 ( 4,6 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3711139 ( 4,5 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0,1 PP</t>
   </si>
   <si>
     <t xml:space="preserve">Vollst. geimpft</t>
   </si>
   <si>
-    <t xml:space="preserve">50431730 (60,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51207077 (61,6 %)</t>
+    <t xml:space="preserve">50600451 (60,8 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51328733 (61,7 %)</t>
   </si>
   <si>
     <t xml:space="preserve"> 0,9 PP</t>
@@ -147,151 +147,151 @@
     <t xml:space="preserve">7-Tage-Inzidenz 60+</t>
   </si>
   <si>
+    <t xml:space="preserve">66,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baden-Württemberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bremen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hessen</t>
+  </si>
+  <si>
     <t xml:space="preserve">66,0</t>
   </si>
   <si>
-    <t xml:space="preserve">61,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baden-Württemberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bayern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandenburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bremen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hessen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60,8</t>
+    <t xml:space="preserve">60,9</t>
   </si>
   <si>
     <t xml:space="preserve">Mecklenburg-Vorpommern</t>
   </si>
   <si>
-    <t xml:space="preserve">64,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60,3</t>
+    <t xml:space="preserve">64,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60,4</t>
   </si>
   <si>
     <t xml:space="preserve">Niedersachsen</t>
   </si>
   <si>
-    <t xml:space="preserve">68,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63,5</t>
+    <t xml:space="preserve">69,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63,7</t>
   </si>
   <si>
     <t xml:space="preserve">Nordrhein-Westfalen</t>
   </si>
   <si>
-    <t xml:space="preserve">70,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64,2</t>
+    <t xml:space="preserve">70,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64,4</t>
   </si>
   <si>
     <t xml:space="preserve">Rheinland-Pfalz</t>
   </si>
   <si>
-    <t xml:space="preserve">67,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61,7</t>
+    <t xml:space="preserve">67,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61,8</t>
   </si>
   <si>
     <t xml:space="preserve">Saarland</t>
   </si>
   <si>
-    <t xml:space="preserve">72,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67,9</t>
+    <t xml:space="preserve">72,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68,1</t>
   </si>
   <si>
     <t xml:space="preserve">Sachsen</t>
   </si>
   <si>
-    <t xml:space="preserve">55,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52,5</t>
+    <t xml:space="preserve">55,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52,6</t>
   </si>
   <si>
     <t xml:space="preserve">Sachsen-Anhalt</t>
   </si>
   <si>
-    <t xml:space="preserve">61,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58,3</t>
+    <t xml:space="preserve">61,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58,4</t>
   </si>
   <si>
     <t xml:space="preserve">Schleswig-Holstein</t>
   </si>
   <si>
-    <t xml:space="preserve">71,0</t>
+    <t xml:space="preserve">71,3</t>
   </si>
   <si>
     <t xml:space="preserve">Thüringen</t>
   </si>
   <si>
-    <t xml:space="preserve">58,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56,3</t>
+    <t xml:space="preserve">58,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56,4</t>
   </si>
   <si>
     <t xml:space="preserve">Impfstoffdosen</t>
@@ -303,28 +303,28 @@
     <t xml:space="preserve">Biontech/Pfizer</t>
   </si>
   <si>
-    <t xml:space="preserve">76982568 (75,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78112277 (75,7 %)</t>
+    <t xml:space="preserve">77230179 (75,6 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78462342 (75,8 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Erstimpfungen</t>
   </si>
   <si>
-    <t xml:space="preserve">37831661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38328236</t>
+    <t xml:space="preserve">37938291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38449918</t>
   </si>
   <si>
     <t xml:space="preserve">Zweitimpfungen</t>
   </si>
   <si>
-    <t xml:space="preserve">39150907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39784041</t>
+    <t xml:space="preserve">39291888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39885678</t>
   </si>
   <si>
     <t xml:space="preserve">geliefert</t>
@@ -339,22 +339,22 @@
     <t xml:space="preserve">Moderna</t>
   </si>
   <si>
-    <t xml:space="preserve">9396381 ( 9,2 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9464777 ( 9,2 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4398792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4412529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4997589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5052248</t>
+    <t xml:space="preserve">9410208 ( 9,2 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9485157 ( 9,2 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4401440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4418936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5008768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5058350</t>
   </si>
   <si>
     <t xml:space="preserve">12836080</t>
@@ -363,22 +363,22 @@
     <t xml:space="preserve">AstraZeneca</t>
   </si>
   <si>
-    <t xml:space="preserve">12645915 (12,4 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12657002 (12,3 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9214941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9218148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3430974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3438854</t>
+    <t xml:space="preserve">12648317 (12,4 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12666711 (12,2 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9215516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9226488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3432801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3440175</t>
   </si>
   <si>
     <t xml:space="preserve">15168730</t>
@@ -390,10 +390,10 @@
     <t xml:space="preserve">Johnson&amp;Johnson</t>
   </si>
   <si>
-    <t xml:space="preserve">2852260 ( 2,8 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2931934 ( 2,8 %)</t>
+    <t xml:space="preserve">2866994 ( 2,8 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2945012 ( 2,8 %)</t>
   </si>
   <si>
     <t xml:space="preserve">4237395</t>
@@ -2612,7 +2612,7 @@
         <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E17" t="n">
         <v>49</v>

--- a/data/kbvreport_export/faktenblatttabellen_2021-09-05.xlsx
+++ b/data/kbvreport_export/faktenblatttabellen_2021-09-05.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
   <si>
     <t xml:space="preserve">Geimpfte Personen</t>
   </si>
@@ -96,10 +96,10 @@
     <t xml:space="preserve">   NA %</t>
   </si>
   <si>
-    <t xml:space="preserve">1640585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1380637</t>
+    <t xml:space="preserve">1640968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1381619</t>
   </si>
   <si>
     <t xml:space="preserve">-15,8 %</t>
@@ -108,13 +108,13 @@
     <t xml:space="preserve">davon in Impfzentren</t>
   </si>
   <si>
-    <t xml:space="preserve">942676 ( 57,5 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">722945 ( 52,4 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-23,3 %</t>
+    <t xml:space="preserve">943059 ( 57,5 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">723927 ( 52,4 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-23,2 %</t>
   </si>
   <si>
     <t xml:space="preserve">davon in ärztl. Praxen</t>
@@ -381,9 +381,6 @@
     <t xml:space="preserve">3440175</t>
   </si>
   <si>
-    <t xml:space="preserve">15168730</t>
-  </si>
-  <si>
     <t xml:space="preserve">14413830</t>
   </si>
   <si>
@@ -486,22 +483,22 @@
     <t xml:space="preserve">80</t>
   </si>
   <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10,0 %</t>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11,2 %</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon Unter-14-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20,7 %</t>
+    <t xml:space="preserve">136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21,3 %</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon 15-bis-34-Jährige</t>
@@ -510,10 +507,10 @@
     <t xml:space="preserve">137</t>
   </si>
   <si>
-    <t xml:space="preserve">141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2,9 %</t>
+    <t xml:space="preserve">143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4,4 %</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon 35-bis-59-Jährige</t>
@@ -522,7 +519,10 @@
     <t xml:space="preserve">70</t>
   </si>
   <si>
-    <t xml:space="preserve">77</t>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11,4 %</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon 60-bis-79-Jährige</t>
@@ -531,106 +531,106 @@
     <t xml:space="preserve">18</t>
   </si>
   <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22,2 %</t>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27,8 %</t>
   </si>
   <si>
     <t xml:space="preserve">- Davon Über-80-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38,9 %</t>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44,4 %</t>
   </si>
   <si>
     <t xml:space="preserve">Hospitalisierungen</t>
   </si>
   <si>
-    <t xml:space="preserve">KW 32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">923 ( 4,5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1463 ( 4,6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 58,5 %</t>
+    <t xml:space="preserve">KW 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1512 ( 4,7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2062 ( 4,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,4 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon unter 4-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">21 ( 2,8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53 ( 4,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152,4 %</t>
+    <t xml:space="preserve">55 ( 4,5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 ( 3,8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27,3 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon 5- bis 14-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">18 ( 0,7%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">35 ( 0,8%)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 94,4 %</t>
+    <t xml:space="preserve">53 ( 0,6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51,4 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon 15- bis 34-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">244 ( 2,5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">343 ( 2,4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 40,6 %</t>
+    <t xml:space="preserve">346 ( 2,4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470 ( 2,3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35,8 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon 35- bis 59-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">331 ( 5,5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">582 ( 6,0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 75,8 %</t>
+    <t xml:space="preserve">604 ( 6,3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">854 ( 5,7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41,4 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon 60- bis 79-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">186 (17,7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">295 (18,0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 58,6 %</t>
+    <t xml:space="preserve">308 (18,8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 (17,8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,9 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon über 80-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">123 (37,8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155 (30,6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26,0 %</t>
+    <t xml:space="preserve">164 (32,3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215 (32,8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31,1 %</t>
   </si>
   <si>
     <t xml:space="preserve">Intensivbetten</t>
@@ -685,25 +685,25 @@
     <t xml:space="preserve">0 bis 59 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">12 ( 0,1%)</t>
+    <t xml:space="preserve">13 ( 0,1%)</t>
   </si>
   <si>
     <t xml:space="preserve">6 ( 0,0%)</t>
   </si>
   <si>
-    <t xml:space="preserve">-50,0%</t>
+    <t xml:space="preserve">-53,8%</t>
   </si>
   <si>
     <t xml:space="preserve">60 bis 79 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">22 ( 2,4%)</t>
+    <t xml:space="preserve">23 ( 2,5%)</t>
   </si>
   <si>
     <t xml:space="preserve">21 ( 2,0%)</t>
   </si>
   <si>
-    <t xml:space="preserve"> -4,5%</t>
+    <t xml:space="preserve"> -8,7%</t>
   </si>
   <si>
     <t xml:space="preserve">80 Jahre +</t>
@@ -718,13 +718,13 @@
     <t xml:space="preserve"> 66,7%</t>
   </si>
   <si>
-    <t xml:space="preserve">58 ( 0,4%)</t>
+    <t xml:space="preserve">60 ( 0,4%)</t>
   </si>
   <si>
     <t xml:space="preserve">67 ( 0,3%)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 15,5%</t>
+    <t xml:space="preserve"> 11,7%</t>
   </si>
   <si>
     <t xml:space="preserve">Übersterblichkeit</t>
@@ -790,19 +790,16 @@
     <t xml:space="preserve">5,2 %</t>
   </si>
   <si>
-    <t xml:space="preserve">1,19</t>
-  </si>
-  <si>
     <t xml:space="preserve">5,3 %</t>
   </si>
   <si>
-    <t xml:space="preserve">1,10</t>
+    <t xml:space="preserve">1,11</t>
   </si>
   <si>
     <t xml:space="preserve">4,5 %</t>
   </si>
   <si>
-    <t xml:space="preserve">1,12</t>
+    <t xml:space="preserve">1,13</t>
   </si>
   <si>
     <t xml:space="preserve">4,4 %</t>
@@ -823,7 +820,7 @@
     <t xml:space="preserve">5,0 %</t>
   </si>
   <si>
-    <t xml:space="preserve">1,38</t>
+    <t xml:space="preserve">1,39</t>
   </si>
   <si>
     <t xml:space="preserve">2,9 %</t>
@@ -850,6 +847,9 @@
     <t xml:space="preserve">7,1 %</t>
   </si>
   <si>
+    <t xml:space="preserve">1,24</t>
+  </si>
+  <si>
     <t xml:space="preserve">1,23</t>
   </si>
   <si>
@@ -857,6 +857,9 @@
   </si>
   <si>
     <t xml:space="preserve">6,1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,30</t>
   </si>
   <si>
     <t xml:space="preserve">Fälle gesamt</t>
@@ -997,7 +1000,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -1316,10 +1319,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -1396,10 +1399,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -1437,13 +1440,13 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" t="n">
         <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
         <v>251</v>
@@ -1466,7 +1469,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
         <v>251</v>
@@ -1480,16 +1483,16 @@
         <v>253</v>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
         <v>251</v>
@@ -1500,13 +1503,13 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C5" t="n">
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E5" t="n">
         <v>27</v>
@@ -1523,13 +1526,13 @@
         <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C6" t="n">
         <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -1546,13 +1549,13 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C7" t="n">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E7" t="n">
         <v>25</v>
@@ -1561,7 +1564,7 @@
         <v>115</v>
       </c>
       <c r="G7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8">
@@ -1569,19 +1572,19 @@
         <v>58</v>
       </c>
       <c r="B8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" t="n">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
         <v>262</v>
       </c>
-      <c r="C8" t="n">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>263</v>
-      </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
         <v>251</v>
@@ -1592,13 +1595,13 @@
         <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C9" t="n">
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E9" t="n">
         <v>27</v>
@@ -1607,7 +1610,7 @@
         <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
@@ -1615,13 +1618,13 @@
         <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" t="n">
         <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1638,10 +1641,10 @@
         <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C11" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
         <v>252</v>
@@ -1650,7 +1653,7 @@
         <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
         <v>251</v>
@@ -1661,22 +1664,22 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C12" t="n">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E12" t="n">
         <v>30</v>
       </c>
       <c r="F12" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13">
@@ -1684,22 +1687,22 @@
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C13" t="n">
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E13" t="n">
         <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14">
@@ -1707,13 +1710,13 @@
         <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C14" t="n">
         <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E14" t="n">
         <v>26</v>
@@ -1730,13 +1733,13 @@
         <v>79</v>
       </c>
       <c r="B15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" t="n">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
         <v>273</v>
-      </c>
-      <c r="C15" t="n">
-        <v>95</v>
-      </c>
-      <c r="D15" t="s">
-        <v>274</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
@@ -1753,7 +1756,7 @@
         <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C16" t="n">
         <v>94</v>
@@ -1782,10 +1785,10 @@
         <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
         <v>51</v>
@@ -1805,7 +1808,7 @@
         <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="E18" t="n">
         <v>14</v>
@@ -1824,336 +1827,336 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C2" t="n">
         <v>1680559</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F2" t="n">
         <v>129515</v>
       </c>
       <c r="G2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H2" t="n">
         <v>721</v>
       </c>
       <c r="I2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C3" t="n">
         <v>1990176</v>
       </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F3" t="n">
         <v>75379</v>
       </c>
       <c r="G3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H3" t="n">
         <v>339</v>
       </c>
       <c r="I3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C4" t="n">
         <v>1130525</v>
       </c>
       <c r="D4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F4" t="n">
         <v>92360</v>
       </c>
       <c r="G4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H4" t="n">
         <v>245</v>
       </c>
       <c r="I4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C5" t="n">
         <v>6921275</v>
       </c>
       <c r="D5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F5" t="n">
         <v>25397</v>
       </c>
       <c r="G5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H5" t="n">
         <v>230</v>
       </c>
       <c r="I5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C6" t="n">
         <v>4877755</v>
       </c>
       <c r="D6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F6" t="n">
         <v>133553</v>
       </c>
       <c r="G6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H6" t="n">
         <v>218</v>
       </c>
       <c r="I6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C7" t="n">
         <v>7010540</v>
       </c>
       <c r="D7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F7" t="n">
         <v>30406</v>
       </c>
       <c r="G7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H7" t="n">
         <v>166</v>
       </c>
       <c r="I7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C8" t="n">
         <v>1192008</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F8" t="n">
         <v>84795</v>
       </c>
       <c r="G8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H8" t="n">
         <v>143</v>
       </c>
       <c r="I8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C9" t="n">
         <v>2890484</v>
       </c>
       <c r="D9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F9" t="n">
         <v>115401</v>
       </c>
       <c r="G9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H9" t="n">
         <v>139</v>
       </c>
       <c r="I9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C10" t="n">
         <v>4571440</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F10" t="n">
         <v>14692</v>
       </c>
       <c r="G10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H10" t="n">
         <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B11" t="s">
         <v>250</v>
@@ -2162,25 +2165,25 @@
         <v>4014858</v>
       </c>
       <c r="D11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F11" t="n">
         <v>18410</v>
       </c>
       <c r="G11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H11" t="n">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2190,10 +2193,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -2274,10 +2277,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -2315,10 +2318,10 @@
         <v>42</v>
       </c>
       <c r="E2" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -2335,10 +2338,10 @@
         <v>45</v>
       </c>
       <c r="E3" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -2355,10 +2358,10 @@
         <v>48</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -2375,7 +2378,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F5" t="n">
         <v>23</v>
@@ -2395,10 +2398,10 @@
         <v>54</v>
       </c>
       <c r="E6" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -2415,10 +2418,10 @@
         <v>57</v>
       </c>
       <c r="E7" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -2435,7 +2438,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F8" t="n">
         <v>30</v>
@@ -2455,10 +2458,10 @@
         <v>63</v>
       </c>
       <c r="E9" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -2475,10 +2478,10 @@
         <v>66</v>
       </c>
       <c r="E10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -2495,7 +2498,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F11" t="n">
         <v>19</v>
@@ -2515,7 +2518,7 @@
         <v>72</v>
       </c>
       <c r="E12" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F12" t="n">
         <v>28</v>
@@ -2535,10 +2538,10 @@
         <v>75</v>
       </c>
       <c r="E13" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -2555,10 +2558,10 @@
         <v>78</v>
       </c>
       <c r="E14" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -2575,10 +2578,10 @@
         <v>81</v>
       </c>
       <c r="E15" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -2595,10 +2598,10 @@
         <v>84</v>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -2615,10 +2618,10 @@
         <v>62</v>
       </c>
       <c r="E17" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -2635,7 +2638,7 @@
         <v>89</v>
       </c>
       <c r="E18" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F18" t="n">
         <v>16</v>
@@ -2648,10 +2651,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -2795,18 +2798,18 @@
         <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
         <v>121</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>122</v>
-      </c>
-      <c r="C14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15">
@@ -2814,10 +2817,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2827,22 +2830,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -2850,72 +2853,72 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
         <v>127</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>128</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>129</v>
-      </c>
-      <c r="D2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
         <v>131</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>132</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>133</v>
-      </c>
-      <c r="D3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
         <v>135</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>136</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>137</v>
-      </c>
-      <c r="D4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
         <v>139</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>140</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>141</v>
-      </c>
-      <c r="D5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" t="s">
         <v>143</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>144</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>145</v>
-      </c>
-      <c r="D6" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2925,22 +2928,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -2948,21 +2951,21 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
         <v>148</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>149</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>150</v>
-      </c>
-      <c r="D2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -2973,55 +2976,55 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
         <v>153</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>154</v>
-      </c>
-      <c r="D4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
         <v>156</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>157</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>158</v>
-      </c>
-      <c r="D5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
         <v>160</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>161</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>162</v>
-      </c>
-      <c r="D6" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
         <v>164</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>165</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>166</v>
-      </c>
-      <c r="D7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8">
@@ -3059,10 +3062,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -3185,10 +3188,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -3200,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -3255,10 +3258,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
